--- a/SDWGAME/Assets/Resources/DataList/SYN_DataList.xlsx
+++ b/SDWGAME/Assets/Resources/DataList/SYN_DataList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singi\Documents\GitHub\2019outsource\multicultural-game-challenge\SDWGAME\Assets\Resources\DataList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC219E-08E2-47B5-9EE5-2F338DA927BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1121D-F977-4242-BBA8-6E330D435B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FC40F55-11B5-4B03-A194-726D6C88CD5E}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{6FC40F55-11B5-4B03-A194-726D6C88CD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="481">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>굴</t>
   </si>
   <si>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>꿈</t>
   </si>
   <si>
@@ -174,10 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>눈</t>
   </si>
   <si>
@@ -201,10 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>땀</t>
   </si>
   <si>
@@ -228,10 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>목</t>
   </si>
   <si>
@@ -255,9 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-06</t>
-  </si>
-  <si>
     <t>반</t>
   </si>
   <si>
@@ -281,9 +258,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-07</t>
-  </si>
-  <si>
     <t>발</t>
   </si>
   <si>
@@ -303,9 +277,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-08</t>
-  </si>
-  <si>
     <t>백</t>
   </si>
   <si>
@@ -325,9 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-09</t>
-  </si>
-  <si>
     <t>변</t>
   </si>
   <si>
@@ -345,9 +313,6 @@
   <si>
     <t>번</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt_1-10</t>
   </si>
   <si>
     <t>봄</t>
@@ -373,9 +338,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-11</t>
-  </si>
-  <si>
     <t>뼘</t>
   </si>
   <si>
@@ -399,9 +361,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-12</t>
-  </si>
-  <si>
     <t>상</t>
   </si>
   <si>
@@ -425,9 +384,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-13</t>
-  </si>
-  <si>
     <t>수</t>
   </si>
   <si>
@@ -451,9 +407,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-14</t>
-  </si>
-  <si>
     <t>십</t>
   </si>
   <si>
@@ -473,9 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-15</t>
-  </si>
-  <si>
     <t>씩</t>
   </si>
   <si>
@@ -503,9 +453,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-16</t>
-  </si>
-  <si>
     <t>약</t>
   </si>
   <si>
@@ -529,9 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-17</t>
-  </si>
-  <si>
     <t>옆</t>
   </si>
   <si>
@@ -551,9 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-18</t>
-  </si>
-  <si>
     <t>잠</t>
   </si>
   <si>
@@ -577,9 +518,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-19</t>
-  </si>
-  <si>
     <t>절</t>
   </si>
   <si>
@@ -599,9 +537,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-20</t>
-  </si>
-  <si>
     <t>점</t>
   </si>
   <si>
@@ -617,9 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-21</t>
-  </si>
-  <si>
     <t>주</t>
   </si>
   <si>
@@ -639,9 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-22</t>
-  </si>
-  <si>
     <t>줄</t>
   </si>
   <si>
@@ -657,9 +586,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-23</t>
-  </si>
-  <si>
     <t>짝</t>
   </si>
   <si>
@@ -679,9 +605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-24</t>
-  </si>
-  <si>
     <t>칸</t>
   </si>
   <si>
@@ -701,9 +624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-25</t>
-  </si>
-  <si>
     <t>키</t>
   </si>
   <si>
@@ -727,9 +647,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-26</t>
-  </si>
-  <si>
     <t>탈</t>
   </si>
   <si>
@@ -753,9 +670,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-27</t>
-  </si>
-  <si>
     <t>팔</t>
   </si>
   <si>
@@ -775,9 +689,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-28</t>
-  </si>
-  <si>
     <t>표</t>
   </si>
   <si>
@@ -805,9 +716,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-29</t>
-  </si>
-  <si>
     <t>품</t>
   </si>
   <si>
@@ -835,9 +743,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alt_1-30</t>
-  </si>
-  <si>
     <t>고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1115,18 +1020,6 @@
   </si>
   <si>
     <t>대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천천히</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1659,6 +1552,297 @@
   </si>
   <si>
     <t>게임No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1_1_W2</t>
+  </si>
+  <si>
+    <t>A1_1_W3</t>
+  </si>
+  <si>
+    <t>A1_1_W4</t>
+  </si>
+  <si>
+    <t>A1_1_W5</t>
+  </si>
+  <si>
+    <t>A1_1_W6</t>
+  </si>
+  <si>
+    <t>A1_1_W7</t>
+  </si>
+  <si>
+    <t>A1_1_W8</t>
+  </si>
+  <si>
+    <t>A1_1_W9</t>
+  </si>
+  <si>
+    <t>A1_1_W10</t>
+  </si>
+  <si>
+    <t>A1_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1_2_W12</t>
+  </si>
+  <si>
+    <t>A1_2_W13</t>
+  </si>
+  <si>
+    <t>A1_2_W14</t>
+  </si>
+  <si>
+    <t>A1_2_W15</t>
+  </si>
+  <si>
+    <t>A1_2_W16</t>
+  </si>
+  <si>
+    <t>A1_2_W17</t>
+  </si>
+  <si>
+    <t>A1_2_W18</t>
+  </si>
+  <si>
+    <t>A1_2_W19</t>
+  </si>
+  <si>
+    <t>A1_2_W20</t>
+  </si>
+  <si>
+    <t>A1_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1_3_W22</t>
+  </si>
+  <si>
+    <t>A1_3_W23</t>
+  </si>
+  <si>
+    <t>A1_3_W24</t>
+  </si>
+  <si>
+    <t>A1_3_W25</t>
+  </si>
+  <si>
+    <t>A1_3_W26</t>
+  </si>
+  <si>
+    <t>A1_3_W27</t>
+  </si>
+  <si>
+    <t>A1_3_W28</t>
+  </si>
+  <si>
+    <t>A1_3_W29</t>
+  </si>
+  <si>
+    <t>A1_3_W30</t>
+  </si>
+  <si>
+    <t>A2_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2_1_W2</t>
+  </si>
+  <si>
+    <t>A2_1_W3</t>
+  </si>
+  <si>
+    <t>A2_1_W4</t>
+  </si>
+  <si>
+    <t>A2_1_W5</t>
+  </si>
+  <si>
+    <t>A2_1_W6</t>
+  </si>
+  <si>
+    <t>A2_1_W7</t>
+  </si>
+  <si>
+    <t>A2_1_W8</t>
+  </si>
+  <si>
+    <t>A2_1_W9</t>
+  </si>
+  <si>
+    <t>A2_1_W10</t>
+  </si>
+  <si>
+    <t>A2_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2_2_W12</t>
+  </si>
+  <si>
+    <t>A2_2_W13</t>
+  </si>
+  <si>
+    <t>A2_2_W14</t>
+  </si>
+  <si>
+    <t>A2_2_W15</t>
+  </si>
+  <si>
+    <t>A2_2_W16</t>
+  </si>
+  <si>
+    <t>A2_2_W17</t>
+  </si>
+  <si>
+    <t>A2_2_W18</t>
+  </si>
+  <si>
+    <t>A2_2_W19</t>
+  </si>
+  <si>
+    <t>A2_2_W20</t>
+  </si>
+  <si>
+    <t>A2_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2_3_W22</t>
+  </si>
+  <si>
+    <t>A2_3_W23</t>
+  </si>
+  <si>
+    <t>A2_3_W24</t>
+  </si>
+  <si>
+    <t>A2_3_W25</t>
+  </si>
+  <si>
+    <t>A2_3_W26</t>
+  </si>
+  <si>
+    <t>A2_3_W27</t>
+  </si>
+  <si>
+    <t>A2_3_W28</t>
+  </si>
+  <si>
+    <t>A2_3_W29</t>
+  </si>
+  <si>
+    <t>A2_3_W30</t>
+  </si>
+  <si>
+    <t>A3_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_1_W2</t>
+  </si>
+  <si>
+    <t>A3_1_W3</t>
+  </si>
+  <si>
+    <t>A3_1_W4</t>
+  </si>
+  <si>
+    <t>A3_1_W5</t>
+  </si>
+  <si>
+    <t>A3_1_W6</t>
+  </si>
+  <si>
+    <t>A3_1_W7</t>
+  </si>
+  <si>
+    <t>A3_1_W8</t>
+  </si>
+  <si>
+    <t>A3_1_W9</t>
+  </si>
+  <si>
+    <t>A3_1_W10</t>
+  </si>
+  <si>
+    <t>A3_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_2_W12</t>
+  </si>
+  <si>
+    <t>A3_2_W13</t>
+  </si>
+  <si>
+    <t>A3_2_W14</t>
+  </si>
+  <si>
+    <t>A3_2_W15</t>
+  </si>
+  <si>
+    <t>A3_2_W16</t>
+  </si>
+  <si>
+    <t>A3_2_W17</t>
+  </si>
+  <si>
+    <t>A3_2_W18</t>
+  </si>
+  <si>
+    <t>A3_2_W19</t>
+  </si>
+  <si>
+    <t>A3_2_W20</t>
+  </si>
+  <si>
+    <t>A3_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_3_W22</t>
+  </si>
+  <si>
+    <t>A3_3_W23</t>
+  </si>
+  <si>
+    <t>A3_3_W24</t>
+  </si>
+  <si>
+    <t>A3_3_W25</t>
+  </si>
+  <si>
+    <t>A3_3_W26</t>
+  </si>
+  <si>
+    <t>A3_3_W27</t>
+  </si>
+  <si>
+    <t>A3_3_W28</t>
+  </si>
+  <si>
+    <t>A3_3_W29</t>
+  </si>
+  <si>
+    <t>A3_3_W30</t>
+  </si>
+  <si>
+    <t>이름표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뵤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1666,7 +1850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1721,7 +1905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1731,6 +1915,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,13 +1970,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2105,18 +2295,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B24F6-823F-42A2-8873-A7ED42269ABC}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2155,7 +2345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2195,11 +2385,11 @@
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2213,37 +2403,37 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2257,37 +2447,37 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2301,37 +2491,37 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2345,37 +2535,37 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2389,37 +2579,37 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2433,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
@@ -2445,25 +2635,25 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>57</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2477,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
@@ -2489,25 +2679,25 @@
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>57</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2521,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>15</v>
@@ -2533,25 +2723,25 @@
         <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>67</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2565,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -2577,25 +2767,25 @@
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>62</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -2609,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
@@ -2621,25 +2811,25 @@
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -2653,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
@@ -2665,25 +2855,25 @@
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>84</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -2697,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
@@ -2709,25 +2899,25 @@
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -2741,10 +2931,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
@@ -2753,25 +2943,25 @@
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>96</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -2785,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>15</v>
@@ -2797,25 +2987,25 @@
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>99</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2829,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>15</v>
@@ -2841,25 +3031,25 @@
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>108</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2873,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>15</v>
@@ -2885,25 +3075,25 @@
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>114</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -2917,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>15</v>
@@ -2929,25 +3119,25 @@
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>119</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -2961,10 +3151,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>15</v>
@@ -2973,25 +3163,25 @@
         <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>125</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -3005,10 +3195,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>15</v>
@@ -3017,25 +3207,25 @@
         <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>121</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -3049,10 +3239,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
@@ -3061,25 +3251,25 @@
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>127</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3093,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>156</v>
+        <v>135</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>15</v>
@@ -3105,25 +3295,25 @@
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>139</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -3137,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>162</v>
+        <v>140</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
@@ -3149,25 +3339,25 @@
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -3181,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>167</v>
+        <v>144</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>15</v>
@@ -3193,25 +3383,25 @@
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>148</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -3225,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
@@ -3237,25 +3427,25 @@
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>153</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -3269,10 +3459,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>15</v>
@@ -3281,25 +3471,25 @@
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>159</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -3313,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>186</v>
+        <v>160</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
@@ -3325,25 +3515,25 @@
         <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>165</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -3357,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>15</v>
@@ -3369,25 +3559,25 @@
         <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>170</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -3401,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>200</v>
+        <v>171</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>15</v>
@@ -3413,25 +3603,25 @@
         <v>15</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>177</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -3445,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>208</v>
+        <v>178</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>15</v>
@@ -3457,22 +3647,22 @@
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>214</v>
+        <v>184</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3485,18 +3675,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF499A-0689-421E-BB15-179ABE1AF2CB}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3535,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3543,43 +3733,43 @@
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>217</v>
+        <v>300</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3587,43 +3777,43 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>217</v>
+        <v>302</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3631,43 +3821,43 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3675,43 +3865,43 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>227</v>
+        <v>306</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3719,43 +3909,43 @@
         <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>344</v>
+        <v>310</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3763,43 +3953,43 @@
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -3807,43 +3997,43 @@
         <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -3851,43 +4041,43 @@
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3895,43 +4085,43 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -3939,43 +4129,43 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -3983,43 +4173,43 @@
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -4027,43 +4217,43 @@
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -4071,43 +4261,43 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4115,43 +4305,43 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="N15" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -4159,43 +4349,43 @@
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="N16" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -4203,43 +4393,43 @@
         <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -4247,43 +4437,43 @@
         <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -4291,43 +4481,43 @@
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -4335,19 +4525,19 @@
         <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>15</v>
@@ -4356,22 +4546,22 @@
         <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="N20" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -4379,43 +4569,43 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -4423,43 +4613,43 @@
         <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="N22" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -4467,43 +4657,43 @@
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="N23" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -4511,43 +4701,43 @@
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -4555,43 +4745,43 @@
         <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N25" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -4599,43 +4789,43 @@
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="N26" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -4643,43 +4833,43 @@
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -4687,43 +4877,43 @@
         <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -4731,43 +4921,43 @@
         <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -4775,43 +4965,43 @@
         <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -4819,40 +5009,40 @@
         <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>214</v>
+      <c r="N31" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4865,18 +5055,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EB06F-4B01-4260-BAEF-23D21D59ED1B}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4915,7 +5105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4923,31 +5113,31 @@
         <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>15</v>
@@ -4955,11 +5145,11 @@
       <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4967,31 +5157,31 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>15</v>
@@ -4999,11 +5189,11 @@
       <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5011,31 +5201,31 @@
         <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>15</v>
@@ -5043,11 +5233,11 @@
       <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -5055,31 +5245,31 @@
         <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>15</v>
@@ -5087,11 +5277,11 @@
       <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5099,31 +5289,31 @@
         <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>15</v>
@@ -5131,11 +5321,11 @@
       <c r="M6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -5143,31 +5333,31 @@
         <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>219</v>
+        <v>156</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>15</v>
@@ -5175,11 +5365,11 @@
       <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -5187,31 +5377,31 @@
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>15</v>
@@ -5219,11 +5409,11 @@
       <c r="M8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -5231,31 +5421,31 @@
         <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>15</v>
@@ -5263,11 +5453,11 @@
       <c r="M9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -5275,31 +5465,31 @@
         <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>15</v>
@@ -5307,11 +5497,11 @@
       <c r="M10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -5319,31 +5509,31 @@
         <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>15</v>
@@ -5351,11 +5541,11 @@
       <c r="M11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -5363,31 +5553,31 @@
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>15</v>
@@ -5395,11 +5585,11 @@
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5407,31 +5597,31 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>15</v>
@@ -5439,11 +5629,11 @@
       <c r="M13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -5451,31 +5641,31 @@
         <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>15</v>
@@ -5483,11 +5673,11 @@
       <c r="M14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -5495,31 +5685,31 @@
         <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>15</v>
@@ -5527,11 +5717,11 @@
       <c r="M15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="N15" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -5539,31 +5729,31 @@
         <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>15</v>
@@ -5571,11 +5761,11 @@
       <c r="M16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="N16" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -5583,31 +5773,31 @@
         <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>15</v>
@@ -5615,11 +5805,11 @@
       <c r="M17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -5627,31 +5817,31 @@
         <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>288</v>
+      <c r="E18" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>15</v>
@@ -5659,11 +5849,11 @@
       <c r="M18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -5671,31 +5861,31 @@
         <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>15</v>
@@ -5703,11 +5893,11 @@
       <c r="M19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -5715,31 +5905,31 @@
         <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>15</v>
@@ -5747,11 +5937,11 @@
       <c r="M20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="N20" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -5759,31 +5949,31 @@
         <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>15</v>
@@ -5791,11 +5981,11 @@
       <c r="M21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -5803,31 +5993,31 @@
         <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>15</v>
@@ -5835,11 +6025,11 @@
       <c r="M22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="N22" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -5847,31 +6037,31 @@
         <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>15</v>
@@ -5879,11 +6069,11 @@
       <c r="M23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="N23" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -5891,31 +6081,31 @@
         <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>15</v>
@@ -5923,11 +6113,11 @@
       <c r="M24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -5935,31 +6125,31 @@
         <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>15</v>
@@ -5967,11 +6157,11 @@
       <c r="M25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N25" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -5979,31 +6169,31 @@
         <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>15</v>
@@ -6011,11 +6201,11 @@
       <c r="M26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="N26" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -6023,31 +6213,31 @@
         <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>15</v>
@@ -6055,11 +6245,11 @@
       <c r="M27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -6067,31 +6257,31 @@
         <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D28" s="3">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>15</v>
@@ -6099,11 +6289,11 @@
       <c r="M28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -6111,31 +6301,31 @@
         <v>87</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D29" s="3">
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>15</v>
@@ -6143,11 +6333,11 @@
       <c r="M29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -6155,31 +6345,31 @@
         <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>15</v>
@@ -6187,11 +6377,11 @@
       <c r="M30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -6199,31 +6389,31 @@
         <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>15</v>
@@ -6231,8 +6421,8 @@
       <c r="M31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>214</v>
+      <c r="N31" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
